--- a/Carbon_Pathways_Inputs_Sample.xlsx
+++ b/Carbon_Pathways_Inputs_Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theca\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F7204-A6CD-4F4C-8180-9767560E7D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0845C732-8C5B-4B34-B402-54A23D751520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="3252" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4092" yWindow="2136" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Params" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="156">
   <si>
     <t>SheetName</t>
   </si>
@@ -495,6 +495,21 @@
   </si>
   <si>
     <t>~100–105 Billion sqft</t>
+  </si>
+  <si>
+    <t>Demand_Tech_Characteristics</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>measure_characteristics</t>
+  </si>
+  <si>
+    <t>Stock_Turnover</t>
+  </si>
+  <si>
+    <t>measure_life</t>
   </si>
 </sst>
 </file>
@@ -848,9 +863,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -875,68 +890,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>

--- a/Carbon_Pathways_Inputs_Sample.xlsx
+++ b/Carbon_Pathways_Inputs_Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theca\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0845C732-8C5B-4B34-B402-54A23D751520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C12AC48-07AE-471C-97FB-C88A79BB2B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4092" yWindow="2136" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Params" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="197">
   <si>
     <t>SheetName</t>
   </si>
@@ -53,6 +53,15 @@
     <t>ValueName</t>
   </si>
   <si>
+    <t>Demand_Tech_Characteristics</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>measure_characteristics</t>
+  </si>
+  <si>
     <t>Baseline_Demand_Fuel_Mix</t>
   </si>
   <si>
@@ -89,6 +98,12 @@
     <t>service_demand_scaler</t>
   </si>
   <si>
+    <t>Stock_Turnover</t>
+  </si>
+  <si>
+    <t>measure_life</t>
+  </si>
+  <si>
     <t>Demand Technology</t>
   </si>
   <si>
@@ -215,7 +230,7 @@
     <t>Utility-Scale Solar PV (one-axis tracking)</t>
   </si>
   <si>
-    <t>kW_AC</t>
+    <t>kW</t>
   </si>
   <si>
     <t>Overnight capital cost (USD/kW)</t>
@@ -224,15 +239,63 @@
     <t>Land-Based Wind</t>
   </si>
   <si>
-    <t>kW</t>
-  </si>
-  <si>
     <t>Li-ion Battery Storage (4-hour)</t>
   </si>
   <si>
     <t>Power component capex (USD/kW)</t>
   </si>
   <si>
+    <t>Electric Storage Water Heater (50 gal)</t>
+  </si>
+  <si>
+    <t>Gas Storage Water Heater (50 gal)</t>
+  </si>
+  <si>
+    <t>High-Efficiency Gas Furnace (space heating)</t>
+  </si>
+  <si>
+    <t>Weatherization: Air sealing + insulation package</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>Cold-Climate ASHP (ducted)</t>
+  </si>
+  <si>
+    <t>Cold-Climate ASHP (ductless)</t>
+  </si>
+  <si>
+    <t>Ground-Source Heat Pump (closed loop)</t>
+  </si>
+  <si>
+    <t>Induction Cooktop (30 in)</t>
+  </si>
+  <si>
+    <t>Electric Resistance Water Heater (50 gal)</t>
+  </si>
+  <si>
+    <t>Commercial LED Retrofit (per fixture)</t>
+  </si>
+  <si>
+    <t>fixture</t>
+  </si>
+  <si>
+    <t>Commercial Smart Thermostat / EMS</t>
+  </si>
+  <si>
+    <t>EV Charger Level 2 (Residential)</t>
+  </si>
+  <si>
+    <t>EV Charger Level 2 (Commercial)</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>Advanced Power Strip (Residential)</t>
+  </si>
+  <si>
     <t>Efficiency Metric</t>
   </si>
   <si>
@@ -428,9 +491,39 @@
     <t>Midpoint used; simple decline applied.</t>
   </si>
   <si>
+    <t>HPWH typical cost range ~$1.5k–$3k. Update: Critical Error: Input likely covers only the hardware unit ($1.5k–$1.8k). Installation labor typically adds $2,500+.</t>
+  </si>
+  <si>
     <t>Demand_Tech_Unit_Cost (HPWH)</t>
   </si>
   <si>
+    <t>ENERGY STAR HPWH pages. Update: Market Maturity: Hardware costs will drop, but labor (the largest chunk) is "sticky." Assumes ~15% total reduction as contractors gain efficiency. Home Depot/Lowes (Unit Price); Rheem/Energy Star (Install Labor Estimates)</t>
+  </si>
+  <si>
+    <t>Too Low: LBL 2025 data shows capacity-weighted installed costs rose to ~$1.61/Watt_AC. NREL ATB Moderate scenarios are ~$1.30–$1.40/Watt_AC.</t>
+  </si>
+  <si>
+    <t>Demand_Tech_Unit_Cost (Utility-Scale Solar PV)</t>
+  </si>
+  <si>
+    <t>NREL ATB 2024 (Moderate): Projects a ~4.8% annual cost reduction for solar CAPEX as supply chains mature. LBL Utility-Scale Solar 2025 Update;</t>
+  </si>
+  <si>
+    <t>~$1,600 / kW_AC</t>
+  </si>
+  <si>
+    <t>Too Low: NREL ATB 2024 projects 4-hour battery costs at ~$340/kWh (~$1,360/kW). LBL 2024 data shows "All-in" CAPEX at ~$458/kWh ($1,832/kW).</t>
+  </si>
+  <si>
+    <t>Demand_Tech_Unit_Cost (Li-ion Battery Storage)</t>
+  </si>
+  <si>
+    <t>NREL 2025 Update (Mid Case): Projects 4-hr battery costs dropping to ~$243/kWh (~$972/kW) by 2030. NREL ATB 2024; LBL Utility-Scale Solar/Storage Report</t>
+  </si>
+  <si>
+    <t>$1,300 – $1,800 / kW</t>
+  </si>
+  <si>
     <t>Gas storage water heater example UEF 0.64</t>
   </si>
   <si>
@@ -443,73 +536,103 @@
     <t>Example product; replace with population-weighted later.</t>
   </si>
   <si>
-    <t>Demand_Tech_Unit_Cost (Utility-Scale Solar PV)</t>
-  </si>
-  <si>
-    <t>Too Low: LBL 2025 data shows capacity-weighted installed costs rose to ~$1.61/Watt_AC. NREL ATB Moderate scenarios are ~$1.30–$1.40/Watt_AC.</t>
-  </si>
-  <si>
-    <t>NREL ATB 2024 (Moderate): Projects a ~4.8% annual cost reduction for solar CAPEX as supply chains mature. LBL Utility-Scale Solar 2025 Update;</t>
-  </si>
-  <si>
-    <t>~$1,600 / kW_AC</t>
-  </si>
-  <si>
-    <t>Demand_Tech_Unit_Cost (Li-ion Battery Storage)</t>
-  </si>
-  <si>
-    <t>Too Low: NREL ATB 2024 projects 4-hour battery costs at ~$340/kWh (~$1,360/kW). LBL 2024 data shows "All-in" CAPEX at ~$458/kWh ($1,832/kW).</t>
-  </si>
-  <si>
-    <t>NREL 2025 Update (Mid Case): Projects 4-hr battery costs dropping to ~$243/kWh (~$972/kW) by 2030. NREL ATB 2024; LBL Utility-Scale Solar/Storage Report</t>
-  </si>
-  <si>
-    <t>$1,300 – $1,800 / kW</t>
-  </si>
-  <si>
-    <t>HPWH typical cost range ~$1.5k–$3k. Update: Critical Error: Input likely covers only the hardware unit ($1.5k–$1.8k). Installation labor typically adds $2,500+.</t>
-  </si>
-  <si>
-    <t>ENERGY STAR HPWH pages. Update: Market Maturity: Hardware costs will drop, but labor (the largest chunk) is "sticky." Assumes ~15% total reduction as contractors gain efficiency. Home Depot/Lowes (Unit Price); Rheem/Energy Star (Install Labor Estimates)</t>
+    <t>~7% Low: The Census Bureau estimated ~131M households in 2023. Projections for 2025 should be 132M+.</t>
   </si>
   <si>
     <t>Stock (Residential Households)</t>
   </si>
   <si>
-    <t>~7% Low: The Census Bureau estimated ~131M households in 2023. Projections for 2025 should be 132M+.</t>
-  </si>
-  <si>
     <t>Demographic Growth: Extrapolates ~0.9% annual growth consistent with Census/AEO trends. US Census Bureau 2024 (Families &amp; Living Arrangements)</t>
   </si>
   <si>
     <t>~132 Million</t>
   </si>
   <si>
+    <t>Low: The 2018 CBECS survey already estimated ~97 billion sqft. Growth trends put 2025 &gt;100B.</t>
+  </si>
+  <si>
     <t>Stock (Commercial Floor Area)</t>
   </si>
   <si>
-    <t>Low: The 2018 CBECS survey already estimated ~97 billion sqft. Growth trends put 2025 &gt;100B.</t>
-  </si>
-  <si>
     <t>Economic Growth: Extrapolates ~1.0% annual growth consistent with historical CBECS/AEO trends. EIA CBECS 2018; AEO 2023/2024 Projections</t>
   </si>
   <si>
     <t>~100–105 Billion sqft</t>
   </si>
   <si>
-    <t>Demand_Tech_Characteristics</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>measure_characteristics</t>
-  </si>
-  <si>
-    <t>Stock_Turnover</t>
-  </si>
-  <si>
-    <t>measure_life</t>
+    <t>Whole-home air-source heat pump installed cost range ~$10,000–$25,000 (quotes; 2025)</t>
+  </si>
+  <si>
+    <t>Demand_Tech_Unit_Cost (Air-Source Heat Pump)</t>
+  </si>
+  <si>
+    <t>EnergySage heat pump costs (Oct 28, 2025)</t>
+  </si>
+  <si>
+    <t>Used upper-mid value ($20k in 2025) to avoid underestimation; excludes incentives.</t>
+  </si>
+  <si>
+    <t>Standard electric storage water heater unit cost ~$400–$900 (spring 2024)</t>
+  </si>
+  <si>
+    <t>Demand_Tech_Unit_Cost (Electric Storage Water Heater)</t>
+  </si>
+  <si>
+    <t>ENERGY STAR HPWH retailer strategy details (spring 2024)</t>
+  </si>
+  <si>
+    <t>Installed cost set higher to include labor/ancillary materials.</t>
+  </si>
+  <si>
+    <t>Gas storage water heater unit cost ~$400–$1,000 (spring 2024)</t>
+  </si>
+  <si>
+    <t>Demand_Tech_Unit_Cost (Gas Storage Water Heater)</t>
+  </si>
+  <si>
+    <t>New furnace costs can range ~$2,000–$14,000 (system replacement)</t>
+  </si>
+  <si>
+    <t>Demand_Tech_Unit_Cost (High-Efficiency Gas Furnace)</t>
+  </si>
+  <si>
+    <t>Carrier: cost of a new furnace (accessed 2025)</t>
+  </si>
+  <si>
+    <t>Used $12k in 2025 as conservative high-efficiency installed cost.</t>
+  </si>
+  <si>
+    <t>DOE Weatherization Assistance Program: average weatherization cost per unit ~$4,695 (fact sheet)</t>
+  </si>
+  <si>
+    <t>Demand_Tech_Unit_Cost (Weatherization package)</t>
+  </si>
+  <si>
+    <t>U.S. DOE WAP fact sheet (2021)</t>
+  </si>
+  <si>
+    <t>Used $6.5k as a conservative installed package cost aligned with program caps/typical scope.</t>
+  </si>
+  <si>
+    <t>Utility-Scale PV ATB: ~1.56 $/W_AC base year (2023 reference project)</t>
+  </si>
+  <si>
+    <t>NREL ATB 2024 Utility-Scale PV page</t>
+  </si>
+  <si>
+    <t>Set 2025 at $1.6k/kW to align with ATB reference cost and avoid underestimation.</t>
+  </si>
+  <si>
+    <t>Land-Based Wind ATB: installed cost reference derived from LBNL / ATB reference project</t>
+  </si>
+  <si>
+    <t>Demand_Tech_Unit_Cost (Land-Based Wind)</t>
+  </si>
+  <si>
+    <t>NREL ATB 2024 Land-Based Wind page</t>
+  </si>
+  <si>
+    <t>Set 2025 at $1.7k/kW as conservative installed cost; refine with resource class later.</t>
   </si>
 </sst>
 </file>
@@ -865,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -890,90 +1013,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -997,212 +1120,310 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1236,60 +1457,60 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>2025</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -1301,30 +1522,30 @@
         <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>2025</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>2.5</v>
@@ -1336,30 +1557,30 @@
         <v>82.5</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>2025</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>70</v>
@@ -1371,30 +1592,30 @@
         <v>95</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>2025</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -1406,7 +1627,7 @@
         <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1432,10 +1653,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1">
         <v>2025</v>
@@ -1458,10 +1679,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>0.47</v>
@@ -1484,10 +1705,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>0.42</v>
@@ -1510,10 +1731,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>0.05</v>
@@ -1536,10 +1757,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>0.03</v>
@@ -1562,10 +1783,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>0.03</v>
@@ -1588,10 +1809,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -1614,10 +1835,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>0.45</v>
@@ -1640,10 +1861,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>0.03</v>
@@ -1666,10 +1887,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>0.02</v>
@@ -1697,7 +1918,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1714,13 +1935,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1">
         <v>2025</v>
@@ -1743,42 +1964,42 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="E2">
-        <v>14700</v>
+        <v>19600</v>
       </c>
       <c r="F2">
-        <v>14400</v>
+        <v>19200</v>
       </c>
       <c r="G2">
-        <v>14100</v>
+        <v>18800</v>
       </c>
       <c r="H2">
-        <v>13800</v>
+        <v>18600</v>
       </c>
       <c r="I2">
-        <v>13500</v>
+        <v>18400</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>4500</v>
@@ -1801,13 +2022,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1830,13 +2051,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>130</v>
@@ -1859,71 +2080,71 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <v>1600</v>
       </c>
       <c r="E6">
-        <v>1530</v>
+        <v>1550</v>
       </c>
       <c r="F6">
-        <v>1460</v>
+        <v>1500</v>
       </c>
       <c r="G6">
-        <v>1390</v>
+        <v>1450</v>
       </c>
       <c r="H6">
-        <v>1320</v>
+        <v>1400</v>
       </c>
       <c r="I6">
-        <v>1250</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E7">
-        <v>1370</v>
+        <v>1670</v>
       </c>
       <c r="F7">
-        <v>1340</v>
+        <v>1640</v>
       </c>
       <c r="G7">
-        <v>1310</v>
+        <v>1610</v>
       </c>
       <c r="H7">
-        <v>1280</v>
+        <v>1580</v>
       </c>
       <c r="I7">
-        <v>1250</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>1360</v>
@@ -1942,6 +2163,412 @@
       </c>
       <c r="I8">
         <v>970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>2500</v>
+      </c>
+      <c r="E9">
+        <v>2450</v>
+      </c>
+      <c r="F9">
+        <v>2400</v>
+      </c>
+      <c r="G9">
+        <v>2350</v>
+      </c>
+      <c r="H9">
+        <v>2300</v>
+      </c>
+      <c r="I9">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <v>3500</v>
+      </c>
+      <c r="E10">
+        <v>3430</v>
+      </c>
+      <c r="F10">
+        <v>3360</v>
+      </c>
+      <c r="G10">
+        <v>3290</v>
+      </c>
+      <c r="H10">
+        <v>3220</v>
+      </c>
+      <c r="I10">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>12000</v>
+      </c>
+      <c r="E11">
+        <v>11800</v>
+      </c>
+      <c r="F11">
+        <v>11600</v>
+      </c>
+      <c r="G11">
+        <v>11400</v>
+      </c>
+      <c r="H11">
+        <v>11200</v>
+      </c>
+      <c r="I11">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>6500</v>
+      </c>
+      <c r="E12">
+        <v>6435</v>
+      </c>
+      <c r="F12">
+        <v>6370</v>
+      </c>
+      <c r="G12">
+        <v>6305</v>
+      </c>
+      <c r="H12">
+        <v>6240</v>
+      </c>
+      <c r="I12">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>24000</v>
+      </c>
+      <c r="E13">
+        <v>23500</v>
+      </c>
+      <c r="F13">
+        <v>23000</v>
+      </c>
+      <c r="G13">
+        <v>22500</v>
+      </c>
+      <c r="H13">
+        <v>22000</v>
+      </c>
+      <c r="I13">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>22000</v>
+      </c>
+      <c r="E14">
+        <v>21600</v>
+      </c>
+      <c r="F14">
+        <v>21200</v>
+      </c>
+      <c r="G14">
+        <v>20800</v>
+      </c>
+      <c r="H14">
+        <v>20400</v>
+      </c>
+      <c r="I14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>35000</v>
+      </c>
+      <c r="E15">
+        <v>34500</v>
+      </c>
+      <c r="F15">
+        <v>34000</v>
+      </c>
+      <c r="G15">
+        <v>33500</v>
+      </c>
+      <c r="H15">
+        <v>33000</v>
+      </c>
+      <c r="I15">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>2800</v>
+      </c>
+      <c r="E16">
+        <v>2750</v>
+      </c>
+      <c r="F16">
+        <v>2700</v>
+      </c>
+      <c r="G16">
+        <v>2650</v>
+      </c>
+      <c r="H16">
+        <v>2600</v>
+      </c>
+      <c r="I16">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>1200</v>
+      </c>
+      <c r="E17">
+        <v>1180</v>
+      </c>
+      <c r="F17">
+        <v>1160</v>
+      </c>
+      <c r="G17">
+        <v>1140</v>
+      </c>
+      <c r="H17">
+        <v>1120</v>
+      </c>
+      <c r="I17">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>140</v>
+      </c>
+      <c r="E18">
+        <v>138</v>
+      </c>
+      <c r="F18">
+        <v>136</v>
+      </c>
+      <c r="G18">
+        <v>134</v>
+      </c>
+      <c r="H18">
+        <v>132</v>
+      </c>
+      <c r="I18">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>450</v>
+      </c>
+      <c r="E19">
+        <v>445</v>
+      </c>
+      <c r="F19">
+        <v>440</v>
+      </c>
+      <c r="G19">
+        <v>435</v>
+      </c>
+      <c r="H19">
+        <v>430</v>
+      </c>
+      <c r="I19">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>2200</v>
+      </c>
+      <c r="E20">
+        <v>2150</v>
+      </c>
+      <c r="F20">
+        <v>2100</v>
+      </c>
+      <c r="G20">
+        <v>2050</v>
+      </c>
+      <c r="H20">
+        <v>2000</v>
+      </c>
+      <c r="I20">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>6500</v>
+      </c>
+      <c r="E21">
+        <v>6400</v>
+      </c>
+      <c r="F21">
+        <v>6300</v>
+      </c>
+      <c r="G21">
+        <v>6200</v>
+      </c>
+      <c r="H21">
+        <v>6100</v>
+      </c>
+      <c r="I21">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>74</v>
+      </c>
+      <c r="F22">
+        <v>73</v>
+      </c>
+      <c r="G22">
+        <v>72</v>
+      </c>
+      <c r="H22">
+        <v>71</v>
+      </c>
+      <c r="I22">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1967,10 +2594,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1">
         <v>2025</v>
@@ -1993,10 +2620,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>8.1</v>
@@ -2019,10 +2646,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>3.75</v>
@@ -2045,10 +2672,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>120</v>
@@ -2071,10 +2698,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>0.1</v>
@@ -2119,13 +2746,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1">
         <v>2025</v>
@@ -2148,13 +2775,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>0.95</v>
@@ -2177,13 +2804,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2206,13 +2833,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>0.64</v>
@@ -2235,13 +2862,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>0.93</v>
@@ -2286,10 +2913,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1">
         <v>2025</v>
@@ -2312,25 +2939,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <f>132*10^6</f>
         <v>132000000</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:F2" si="0">E2-(1.2*10^6)</f>
+        <f>E2-(1.2*10^6)</f>
         <v>133200000</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
+        <f>F2-(1.2*10^6)</f>
         <v>134400000</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
+        <f>G2-(1.2*10^6)</f>
         <v>135600000</v>
       </c>
       <c r="G2">
@@ -2344,10 +2971,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <f>102*10^9</f>
@@ -2400,19 +3027,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1">
         <v>2025</v>
@@ -2435,19 +3062,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F2">
         <v>45</v>
@@ -2470,19 +3097,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -2505,19 +3132,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -2562,100 +3189,100 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Carbon_Pathways_Inputs_Sample.xlsx
+++ b/Carbon_Pathways_Inputs_Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theca\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C12AC48-07AE-471C-97FB-C88A79BB2B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB81DA-AAAA-4356-8DEC-F2E277326F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Params" sheetId="1" r:id="rId1"/>
@@ -679,11 +679,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,7 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1435,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1920,9 +1921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="97" workbookViewId="0">
+    <sheetView zoomScale="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1972,23 +1973,28 @@
       <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="D2">
-        <v>20000</v>
-      </c>
-      <c r="E2">
-        <v>19600</v>
-      </c>
-      <c r="F2">
-        <v>19200</v>
-      </c>
-      <c r="G2">
-        <v>18800</v>
-      </c>
-      <c r="H2">
-        <v>18600</v>
-      </c>
-      <c r="I2">
-        <v>18400</v>
+      <c r="D2" s="2">
+        <v>16500</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2-(D2*0.02)</f>
+        <v>16170</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:I2" si="0">E2-(E2*0.02)</f>
+        <v>15846.6</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" si="0"/>
+        <v>15529.668</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" si="0"/>
+        <v>15219.074639999999</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" si="0"/>
+        <v>14914.6931472</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2001,23 +2007,28 @@
       <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="D3">
-        <v>4500</v>
-      </c>
-      <c r="E3">
-        <v>4360</v>
-      </c>
-      <c r="F3">
-        <v>4220</v>
-      </c>
-      <c r="G3">
-        <v>4080</v>
-      </c>
-      <c r="H3">
-        <v>3940</v>
-      </c>
-      <c r="I3">
-        <v>3800</v>
+      <c r="D3" s="2">
+        <v>5900</v>
+      </c>
+      <c r="E3" s="2">
+        <f>D3-(D3*0.015)</f>
+        <v>5811.5</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:I3" si="1">E3-(E3*0.015)</f>
+        <v>5724.3275000000003</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="1"/>
+        <v>5638.4625875000002</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="1"/>
+        <v>5553.8856486875002</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="1"/>
+        <v>5470.577363957188</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2030,23 +2041,28 @@
       <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>3.8</v>
-      </c>
-      <c r="F4">
-        <v>3.6</v>
-      </c>
-      <c r="G4">
-        <v>3.5</v>
-      </c>
-      <c r="H4">
-        <v>3.4</v>
-      </c>
-      <c r="I4">
-        <v>3.3</v>
+      <c r="E4" s="2">
+        <f>D4-(D4*0.03)</f>
+        <v>3.88</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:I4" si="2">E4-(E4*0.03)</f>
+        <v>3.7635999999999998</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>3.6506919999999998</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5411712399999997</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="2"/>
+        <v>3.4349361027999996</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2059,22 +2075,22 @@
       <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>130</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>128</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>126</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>124</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>122</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>120</v>
       </c>
     </row>
@@ -2088,23 +2104,28 @@
       <c r="C6" t="s">
         <v>63</v>
       </c>
-      <c r="D6">
-        <v>1600</v>
-      </c>
-      <c r="E6">
-        <v>1550</v>
-      </c>
-      <c r="F6">
-        <v>1500</v>
-      </c>
-      <c r="G6">
-        <v>1450</v>
-      </c>
-      <c r="H6">
-        <v>1400</v>
-      </c>
-      <c r="I6">
-        <v>1350</v>
+      <c r="D6" s="2">
+        <v>1495</v>
+      </c>
+      <c r="E6" s="2">
+        <f>D6-(D6*0.0375)</f>
+        <v>1438.9375</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:I6" si="3">E6-(E6*0.0375)</f>
+        <v>1384.97734375</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>1333.0406933593752</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="3"/>
+        <v>1283.0516673583986</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>1234.9372298324586</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2117,22 +2138,22 @@
       <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>1700</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>1670</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>1640</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>1610</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>1580</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>1550</v>
       </c>
     </row>
@@ -2146,23 +2167,28 @@
       <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>1360</v>
       </c>
-      <c r="E8">
-        <v>1282</v>
-      </c>
-      <c r="F8">
-        <v>1204</v>
-      </c>
-      <c r="G8">
-        <v>1126</v>
-      </c>
-      <c r="H8">
-        <v>1048</v>
-      </c>
-      <c r="I8">
-        <v>970</v>
+      <c r="E8" s="2">
+        <f>D8-(D8*0.095)</f>
+        <v>1230.8</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:I8" si="4">E8-(E8*0.095)</f>
+        <v>1113.874</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="4"/>
+        <v>1008.05597</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="4"/>
+        <v>912.29065285000001</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="4"/>
+        <v>825.62304082925004</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2175,22 +2201,22 @@
       <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>2500</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>2450</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>2400</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>2350</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>2300</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>2250</v>
       </c>
     </row>
@@ -2204,22 +2230,22 @@
       <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>3500</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>3430</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>3360</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>3290</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>3220</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>3150</v>
       </c>
     </row>
@@ -2233,23 +2259,28 @@
       <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="D11">
-        <v>12000</v>
-      </c>
-      <c r="E11">
-        <v>11800</v>
-      </c>
-      <c r="F11">
-        <v>11600</v>
-      </c>
-      <c r="G11">
-        <v>11400</v>
-      </c>
-      <c r="H11">
-        <v>11200</v>
-      </c>
-      <c r="I11">
-        <v>11000</v>
+      <c r="D11" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E11" s="2">
+        <f>D11-(D11*0.02)</f>
+        <v>5880</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ref="F11:I11" si="5">E11-(E11*0.02)</f>
+        <v>5762.4</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="5"/>
+        <v>5647.152</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="5"/>
+        <v>5534.2089599999999</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="5"/>
+        <v>5423.5247808000004</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2262,22 +2293,22 @@
       <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>6500</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>6435</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>6370</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>6305</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>6240</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>6175</v>
       </c>
     </row>
@@ -2291,22 +2322,22 @@
       <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>24000</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>23500</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>23000</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>22500</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>22000</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>21500</v>
       </c>
     </row>
@@ -2320,22 +2351,22 @@
       <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>22000</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>21600</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>21200</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>20800</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>20400</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>20000</v>
       </c>
     </row>
@@ -2349,22 +2380,22 @@
       <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>35000</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>34500</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>34000</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>33500</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>33000</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>32500</v>
       </c>
     </row>
@@ -2378,22 +2409,22 @@
       <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>2800</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>2750</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>2700</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>2650</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>2600</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>2550</v>
       </c>
     </row>
@@ -2407,22 +2438,22 @@
       <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>1200</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>1180</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>1160</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>1140</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>1120</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>1100</v>
       </c>
     </row>
@@ -2436,22 +2467,22 @@
       <c r="C18" t="s">
         <v>56</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>140</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>138</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>136</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>134</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>132</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>130</v>
       </c>
     </row>
@@ -2465,22 +2496,22 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>450</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>445</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>440</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>435</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>430</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>425</v>
       </c>
     </row>
@@ -2494,22 +2525,22 @@
       <c r="C20" t="s">
         <v>56</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>2200</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>2150</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>2100</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>2050</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>2000</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>1950</v>
       </c>
     </row>
@@ -2523,22 +2554,22 @@
       <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>6500</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>6400</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>6300</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>6200</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>6100</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>6000</v>
       </c>
     </row>
@@ -2552,22 +2583,22 @@
       <c r="C22" t="s">
         <v>56</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>75</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>74</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>73</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>72</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>71</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>70</v>
       </c>
     </row>
